--- a/Assets/06.Table/DokebiReward.xlsx
+++ b/Assets/06.Table/DokebiReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3F079D-94B7-421A-9DBD-34721387AC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827348AF-DA41-430D-8816-938DBA6005F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5670" yWindow="5685" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DokebiRewardTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>rewardAmount</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,38 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descForView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소환서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성장스톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우구슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,14 +457,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
@@ -449,18 +482,23 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2">
-        <v>100</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>1000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -468,10 +506,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
-        <v>1000</v>
+        <v>200</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -479,10 +520,27 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>10000</v>
+        <v>200</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>200</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DokebiReward.xlsx
+++ b/Assets/06.Table/DokebiReward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827348AF-DA41-430D-8816-938DBA6005F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0ED4D7-94F2-4206-8B92-6F6C4F7B393F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="5685" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DokebiRewardTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>rewardAmount</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,39 +48,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>descForView</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소환서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성장스톤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여우구슬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,9 +64,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,7 +103,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -138,9 +111,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -472,7 +442,7 @@
     <col min="5" max="5" width="27.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -483,64 +453,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>200</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2">
-        <v>200</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
-        <v>200</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2">
-        <v>200</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DokebiReward.xlsx
+++ b/Assets/06.Table/DokebiReward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0ED4D7-94F2-4206-8B92-6F6C4F7B393F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF849F3-69B2-4B70-B966-BECA02557FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DokebiRewardTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>rewardAmount</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,14 @@
   </si>
   <si>
     <t>1000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,14 +111,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -419,7 +424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -427,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -463,10 +468,24 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>200</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Assets/06.Table/DokebiReward.xlsx
+++ b/Assets/06.Table/DokebiReward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF849F3-69B2-4B70-B966-BECA02557FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C545DB01-BC4E-462C-A475-099EF5CE6F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -444,7 +444,6 @@
     <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
